--- a/revenue_by_days/out/revenue_by_days.xlsx
+++ b/revenue_by_days/out/revenue_by_days.xlsx
@@ -23,13 +23,15 @@
     <sheet name="revenue_on_regs_notref" sheetId="14" r:id="rId14"/>
     <sheet name="revenue_ref" sheetId="15" r:id="rId15"/>
     <sheet name="revenue_on_regs_ref" sheetId="16" r:id="rId16"/>
+    <sheet name="revenue" sheetId="17" r:id="rId17"/>
+    <sheet name="revenue_on_regs" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="15">
   <si>
     <t>week_1</t>
   </si>
@@ -46,6 +48,33 @@
     <t>users</t>
   </si>
   <si>
+    <t>2018-01-01 TO 2018-01-07</t>
+  </si>
+  <si>
+    <t>2018-01-08 TO 2018-01-14</t>
+  </si>
+  <si>
+    <t>2018-01-15 TO 2018-01-21</t>
+  </si>
+  <si>
+    <t>2018-01-22 TO 2018-01-28</t>
+  </si>
+  <si>
+    <t>2018-01-29 TO 2018-02-04</t>
+  </si>
+  <si>
+    <t>2018-02-05 TO 2018-02-11</t>
+  </si>
+  <si>
+    <t>2018-02-12 TO 2018-02-18</t>
+  </si>
+  <si>
+    <t>2018-02-19 TO 2018-02-25</t>
+  </si>
+  <si>
+    <t>2018-02-26 TO 2018-03-04</t>
+  </si>
+  <si>
     <t>registration week</t>
   </si>
 </sst>
@@ -53,9 +82,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -108,12 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -410,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,243 +457,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>218742</v>
+        <v>183181</v>
       </c>
       <c r="C2">
-        <v>35859</v>
+        <v>46920</v>
       </c>
       <c r="D2">
-        <v>16454</v>
+        <v>22036</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>4485</v>
       </c>
       <c r="F2">
-        <v>30083</v>
+        <v>36835</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>155601</v>
+        <v>210036</v>
       </c>
       <c r="C3">
-        <v>43676</v>
+        <v>59190</v>
       </c>
       <c r="D3">
-        <v>23051</v>
+        <v>21730</v>
       </c>
       <c r="E3">
-        <v>6269</v>
+        <v>2493</v>
       </c>
       <c r="F3">
-        <v>32035</v>
+        <v>38114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>150618</v>
+        <v>146108</v>
       </c>
       <c r="C4">
-        <v>45214</v>
+        <v>50375</v>
       </c>
       <c r="D4">
-        <v>19088</v>
+        <v>30987</v>
       </c>
       <c r="E4">
-        <v>2307</v>
+        <v>2587</v>
       </c>
       <c r="F4">
-        <v>30835</v>
+        <v>34828</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>182121</v>
+        <v>186047</v>
       </c>
       <c r="C5">
-        <v>34443</v>
+        <v>44275</v>
       </c>
       <c r="D5">
-        <v>16440</v>
+        <v>21717</v>
       </c>
       <c r="E5">
-        <v>2113</v>
+        <v>2129</v>
       </c>
       <c r="F5">
-        <v>36191</v>
+        <v>35174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>192518</v>
+        <v>169723</v>
       </c>
       <c r="C6">
-        <v>50223</v>
+        <v>34699</v>
       </c>
       <c r="D6">
-        <v>22740</v>
+        <v>31311</v>
       </c>
       <c r="E6">
-        <v>3853</v>
+        <v>1610</v>
       </c>
       <c r="F6">
-        <v>37296</v>
+        <v>37331</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>178361</v>
+        <v>230370</v>
       </c>
       <c r="C7">
-        <v>61036</v>
+        <v>54293</v>
       </c>
       <c r="D7">
-        <v>32928</v>
+        <v>46198</v>
       </c>
       <c r="E7">
-        <v>2490</v>
+        <v>5364</v>
       </c>
       <c r="F7">
-        <v>36698</v>
+        <v>37473</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>162026</v>
+        <v>181394</v>
       </c>
       <c r="C8">
-        <v>46816</v>
+        <v>54891</v>
       </c>
       <c r="D8">
-        <v>26610</v>
+        <v>16233</v>
       </c>
       <c r="E8">
-        <v>2198</v>
+        <v>1625</v>
       </c>
       <c r="F8">
-        <v>34494</v>
+        <v>33650</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>182965</v>
+        <v>229051</v>
       </c>
       <c r="C9">
-        <v>36955</v>
+        <v>46805</v>
       </c>
       <c r="D9">
-        <v>28704</v>
+        <v>15071</v>
       </c>
       <c r="E9">
-        <v>2549</v>
+        <v>2102</v>
       </c>
       <c r="F9">
-        <v>35054</v>
+        <v>36157</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>196774</v>
+        <v>87215</v>
       </c>
       <c r="C10">
-        <v>52585</v>
+        <v>15373</v>
       </c>
       <c r="D10">
-        <v>35520</v>
+        <v>13001</v>
       </c>
       <c r="E10">
-        <v>3202</v>
+        <v>1658</v>
       </c>
       <c r="F10">
-        <v>39250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>213578</v>
-      </c>
-      <c r="C11">
-        <v>37927</v>
-      </c>
-      <c r="D11">
-        <v>26256</v>
-      </c>
-      <c r="E11">
-        <v>3433</v>
-      </c>
-      <c r="F11">
-        <v>34615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>194189</v>
-      </c>
-      <c r="C12">
-        <v>58837</v>
-      </c>
-      <c r="D12">
-        <v>20550</v>
-      </c>
-      <c r="E12">
-        <v>1858</v>
-      </c>
-      <c r="F12">
-        <v>35184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>219018</v>
-      </c>
-      <c r="C13">
-        <v>41064</v>
-      </c>
-      <c r="D13">
-        <v>19759</v>
-      </c>
-      <c r="E13">
-        <v>3156</v>
-      </c>
-      <c r="F13">
-        <v>35963</v>
+        <v>15029</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +643,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -704,207 +667,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>7.79266539395225</v>
+        <v>6.369901264071442</v>
       </c>
       <c r="C2">
-        <v>1.567866317848641</v>
+        <v>1.163901641406201</v>
       </c>
       <c r="D2">
-        <v>0.6644747696151218</v>
+        <v>0.4738444123011131</v>
       </c>
       <c r="E2">
-        <v>0.08494190294374131</v>
+        <v>0.1015533614238098</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>7.632652815417043</v>
+        <v>6.666038912887393</v>
       </c>
       <c r="C3">
-        <v>1.242938873833183</v>
+        <v>1.407243493920597</v>
       </c>
       <c r="D3">
-        <v>0.7088105992171033</v>
+        <v>0.7515860591579467</v>
       </c>
       <c r="E3">
-        <v>0.1075218307738633</v>
+        <v>0.07766098941842536</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>7.602887943036716</v>
+        <v>5.623249683540174</v>
       </c>
       <c r="C4">
-        <v>1.757587811766578</v>
+        <v>1.219081548760913</v>
       </c>
       <c r="D4">
-        <v>0.6920720792394288</v>
+        <v>0.7439220138589829</v>
       </c>
       <c r="E4">
-        <v>0.103279101528833</v>
+        <v>0.05263020527476543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>6.728557868330056</v>
+        <v>7.071500338808795</v>
       </c>
       <c r="C5">
-        <v>1.088921282798834</v>
+        <v>1.216160011215739</v>
       </c>
       <c r="D5">
-        <v>0.5953623974506747</v>
+        <v>0.6685515339860271</v>
       </c>
       <c r="E5">
-        <v>0.05668180893619906</v>
+        <v>0.09837138117157744</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>6.261197715501412</v>
+        <v>7.44160625695535</v>
       </c>
       <c r="C6">
-        <v>1.199019843732192</v>
+        <v>1.200990129902547</v>
       </c>
       <c r="D6">
-        <v>0.4484024972456849</v>
+        <v>0.6624821891023308</v>
       </c>
       <c r="E6">
-        <v>0.09132928945002343</v>
+        <v>0.05974061092679071</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>6.293696792930237</v>
+        <v>8.646699289423852</v>
       </c>
       <c r="C7">
-        <v>1.402846850889329</v>
+        <v>1.516723850235296</v>
       </c>
       <c r="D7">
-        <v>0.9186329132857196</v>
+        <v>1.052008924386448</v>
       </c>
       <c r="E7">
-        <v>0.06396689476373879</v>
+        <v>0.09349982188724525</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>6.046110484780158</v>
+        <v>8.073944915826569</v>
       </c>
       <c r="C8">
-        <v>1.176362269823375</v>
+        <v>1.63549405076192</v>
       </c>
       <c r="D8">
-        <v>0.6645120881873983</v>
+        <v>0.7499723719593806</v>
       </c>
       <c r="E8">
-        <v>0.05370161593385945</v>
+        <v>0.04869902626505728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>7.347141349335294</v>
+        <v>9.014151223862848</v>
       </c>
       <c r="C9">
-        <v>1.31897584288984</v>
+        <v>1.49532256466158</v>
       </c>
       <c r="D9">
-        <v>0.791788717194597</v>
+        <v>0.6304528788028937</v>
       </c>
       <c r="E9">
-        <v>0.1046926698528278</v>
+        <v>0.06528589832524032</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>7.629822673987238</v>
+        <v>8.519134401474124</v>
       </c>
       <c r="C10">
-        <v>1.290445540881436</v>
+        <v>1.205590885598076</v>
       </c>
       <c r="D10">
-        <v>0.7495641044665381</v>
+        <v>0.7441855239208107</v>
       </c>
       <c r="E10">
-        <v>0.06618192610179552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>9.386054227798226</v>
-      </c>
-      <c r="C11">
-        <v>1.491710301207942</v>
-      </c>
-      <c r="D11">
-        <v>0.8844211726890974</v>
-      </c>
-      <c r="E11">
-        <v>0.07217585152159262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>8.047249329517028</v>
-      </c>
-      <c r="C12">
-        <v>1.478510738996191</v>
-      </c>
-      <c r="D12">
-        <v>0.7619391043699714</v>
-      </c>
-      <c r="E12">
-        <v>0.05449505307520678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>8.767188157366911</v>
-      </c>
-      <c r="C13">
-        <v>1.499740722259728</v>
-      </c>
-      <c r="D13">
-        <v>0.6567162718796169</v>
-      </c>
-      <c r="E13">
-        <v>0.0669719295155909</v>
+        <v>0.04161704231365587</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +826,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -938,243 +850,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>724606</v>
+        <v>1325400</v>
       </c>
       <c r="C2">
-        <v>226640</v>
+        <v>419360</v>
       </c>
       <c r="D2">
-        <v>159544</v>
+        <v>289265</v>
       </c>
       <c r="E2">
-        <v>28079</v>
+        <v>46374</v>
       </c>
       <c r="F2">
-        <v>33178</v>
+        <v>62363</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>627636</v>
+        <v>1103737</v>
       </c>
       <c r="C3">
-        <v>191609</v>
+        <v>395775</v>
       </c>
       <c r="D3">
-        <v>118641</v>
+        <v>288908</v>
       </c>
       <c r="E3">
-        <v>25056</v>
+        <v>36014</v>
       </c>
       <c r="F3">
-        <v>32609</v>
+        <v>70342</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>735057</v>
+        <v>536682</v>
       </c>
       <c r="C4">
-        <v>224251</v>
+        <v>180440</v>
       </c>
       <c r="D4">
-        <v>147958</v>
+        <v>131504</v>
       </c>
       <c r="E4">
-        <v>19918</v>
+        <v>19066</v>
       </c>
       <c r="F4">
-        <v>30664</v>
+        <v>31933</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1674676</v>
+        <v>494743</v>
       </c>
       <c r="C5">
-        <v>581067</v>
+        <v>189620</v>
       </c>
       <c r="D5">
-        <v>374505</v>
+        <v>126721</v>
       </c>
       <c r="E5">
-        <v>56962</v>
+        <v>20206</v>
       </c>
       <c r="F5">
-        <v>68531</v>
+        <v>29887</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1357942</v>
+        <v>548869</v>
       </c>
       <c r="C6">
-        <v>442017</v>
+        <v>219187</v>
       </c>
       <c r="D6">
-        <v>318912</v>
+        <v>164284</v>
       </c>
       <c r="E6">
-        <v>47683</v>
+        <v>20585</v>
       </c>
       <c r="F6">
-        <v>70981</v>
+        <v>31208</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>674544</v>
+        <v>945967</v>
       </c>
       <c r="C7">
-        <v>223327</v>
+        <v>347625</v>
       </c>
       <c r="D7">
-        <v>170039</v>
+        <v>236842</v>
       </c>
       <c r="E7">
-        <v>18731</v>
+        <v>44966</v>
       </c>
       <c r="F7">
-        <v>45339</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>550604</v>
+        <v>866469</v>
       </c>
       <c r="C8">
-        <v>209937</v>
+        <v>320883</v>
       </c>
       <c r="D8">
-        <v>149579</v>
+        <v>212099</v>
       </c>
       <c r="E8">
-        <v>23367</v>
+        <v>35353</v>
       </c>
       <c r="F8">
-        <v>33880</v>
+        <v>45943</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>426042</v>
+        <v>1079683</v>
       </c>
       <c r="C9">
-        <v>160829</v>
+        <v>377802</v>
       </c>
       <c r="D9">
-        <v>105559</v>
+        <v>270906</v>
       </c>
       <c r="E9">
-        <v>14887</v>
+        <v>43335</v>
       </c>
       <c r="F9">
-        <v>24376</v>
+        <v>60837</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>767878</v>
+        <v>360709</v>
       </c>
       <c r="C10">
-        <v>306478</v>
+        <v>125750</v>
       </c>
       <c r="D10">
-        <v>229165</v>
+        <v>99877</v>
       </c>
       <c r="E10">
-        <v>37405</v>
+        <v>14774</v>
       </c>
       <c r="F10">
-        <v>40983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>946967</v>
-      </c>
-      <c r="C11">
-        <v>343293</v>
-      </c>
-      <c r="D11">
-        <v>219567</v>
-      </c>
-      <c r="E11">
-        <v>38484</v>
-      </c>
-      <c r="F11">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>998428</v>
-      </c>
-      <c r="C12">
-        <v>348339</v>
-      </c>
-      <c r="D12">
-        <v>237564</v>
-      </c>
-      <c r="E12">
-        <v>38412</v>
-      </c>
-      <c r="F12">
-        <v>53742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>919521</v>
-      </c>
-      <c r="C13">
-        <v>329198</v>
-      </c>
-      <c r="D13">
-        <v>252464</v>
-      </c>
-      <c r="E13">
-        <v>40011</v>
-      </c>
-      <c r="F13">
-        <v>50957</v>
+        <v>16788</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1208,207 +1060,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>21.83995418650913</v>
+        <v>21.25298654650995</v>
       </c>
       <c r="C2">
-        <v>6.831032611971788</v>
+        <v>6.724500104228468</v>
       </c>
       <c r="D2">
-        <v>4.808728675628428</v>
+        <v>4.638407388996681</v>
       </c>
       <c r="E2">
-        <v>0.846313822412442</v>
+        <v>0.7436140018921475</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>19.24732435830599</v>
+        <v>15.69100963862273</v>
       </c>
       <c r="C3">
-        <v>5.875954491091417</v>
+        <v>5.626439396093373</v>
       </c>
       <c r="D3">
-        <v>3.638290042626269</v>
+        <v>4.107190583150891</v>
       </c>
       <c r="E3">
-        <v>0.7683768284829342</v>
+        <v>0.5119843052514856</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>23.97133446386642</v>
+        <v>16.80650111170263</v>
       </c>
       <c r="C4">
-        <v>7.313168536394469</v>
+        <v>5.650580903767263</v>
       </c>
       <c r="D4">
-        <v>4.825136968432037</v>
+        <v>4.118122318604579</v>
       </c>
       <c r="E4">
-        <v>0.6495564831724497</v>
+        <v>0.5970625998183697</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>24.43676584319505</v>
+        <v>16.55378592699167</v>
       </c>
       <c r="C5">
-        <v>8.478892763858692</v>
+        <v>6.344564526382708</v>
       </c>
       <c r="D5">
-        <v>5.464753177394172</v>
+        <v>4.240004015123632</v>
       </c>
       <c r="E5">
-        <v>0.8311858866790212</v>
+        <v>0.6760799009602837</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>19.1310632422761</v>
+        <v>17.587445526788</v>
       </c>
       <c r="C6">
-        <v>6.227257998619349</v>
+        <v>7.023423481158678</v>
       </c>
       <c r="D6">
-        <v>4.492920640734845</v>
+        <v>5.2641630351192</v>
       </c>
       <c r="E6">
-        <v>0.671771319085389</v>
+        <v>0.6596065111509869</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>14.8777873354066</v>
+        <v>21.17157180904635</v>
       </c>
       <c r="C7">
-        <v>4.925715167956946</v>
+        <v>7.780152637586446</v>
       </c>
       <c r="D7">
-        <v>3.750391495180749</v>
+        <v>5.300731854703342</v>
       </c>
       <c r="E7">
-        <v>0.4131321820066609</v>
+        <v>1.006378550166737</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>16.25159386068477</v>
+        <v>18.85965217769845</v>
       </c>
       <c r="C8">
-        <v>6.196487603305785</v>
+        <v>6.984371939141981</v>
       </c>
       <c r="D8">
-        <v>4.414964580873672</v>
+        <v>4.616568356441678</v>
       </c>
       <c r="E8">
-        <v>0.6896989374262101</v>
+        <v>0.7694969853949459</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>17.47792911060059</v>
+        <v>17.74714400775844</v>
       </c>
       <c r="C9">
-        <v>6.597842139809649</v>
+        <v>6.210069530055723</v>
       </c>
       <c r="D9">
-        <v>4.330447981621266</v>
+        <v>4.452980916218748</v>
       </c>
       <c r="E9">
-        <v>0.6107236626189695</v>
+        <v>0.7123132304354258</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>18.7365005002074</v>
+        <v>21.48612103883726</v>
       </c>
       <c r="C10">
-        <v>7.478173876973379</v>
+        <v>7.490469382892543</v>
       </c>
       <c r="D10">
-        <v>5.591708757289608</v>
+        <v>5.949309030259709</v>
       </c>
       <c r="E10">
-        <v>0.9126955078935168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>21.46003580574252</v>
-      </c>
-      <c r="C11">
-        <v>7.779658712352981</v>
-      </c>
-      <c r="D11">
-        <v>4.975797131008227</v>
-      </c>
-      <c r="E11">
-        <v>0.8721191107485213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>18.57816977410591</v>
-      </c>
-      <c r="C12">
-        <v>6.481690298090879</v>
-      </c>
-      <c r="D12">
-        <v>4.420453276766775</v>
-      </c>
-      <c r="E12">
-        <v>0.7147482415987496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>18.04503797319309</v>
-      </c>
-      <c r="C13">
-        <v>6.460309672861432</v>
-      </c>
-      <c r="D13">
-        <v>4.954451792687952</v>
-      </c>
-      <c r="E13">
-        <v>0.785191435916557</v>
+        <v>0.8800333571598761</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1219,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1442,243 +1243,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>410604</v>
+        <v>399721</v>
       </c>
       <c r="C2">
-        <v>92355</v>
+        <v>115226</v>
       </c>
       <c r="D2">
-        <v>57004</v>
+        <v>61245</v>
       </c>
       <c r="E2">
-        <v>10211</v>
+        <v>10784</v>
       </c>
       <c r="F2">
-        <v>41066</v>
+        <v>52744</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>306873</v>
+        <v>629681</v>
       </c>
       <c r="C3">
-        <v>92138</v>
+        <v>217293</v>
       </c>
       <c r="D3">
-        <v>56523</v>
+        <v>140418</v>
       </c>
       <c r="E3">
-        <v>14335</v>
+        <v>17468</v>
       </c>
       <c r="F3">
-        <v>43146</v>
+        <v>72526</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>304260</v>
+        <v>424932</v>
       </c>
       <c r="C4">
-        <v>94864</v>
+        <v>136716</v>
       </c>
       <c r="D4">
-        <v>46333</v>
+        <v>97933</v>
       </c>
       <c r="E4">
-        <v>6240</v>
+        <v>10954</v>
       </c>
       <c r="F4">
-        <v>40902</v>
+        <v>55223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>429295</v>
+        <v>431955</v>
       </c>
       <c r="C5">
-        <v>115034</v>
+        <v>147318</v>
       </c>
       <c r="D5">
-        <v>69161</v>
+        <v>91749</v>
       </c>
       <c r="E5">
-        <v>9616</v>
+        <v>12280</v>
       </c>
       <c r="F5">
-        <v>50650</v>
+        <v>54224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>504442</v>
+        <v>372784</v>
       </c>
       <c r="C6">
-        <v>165262</v>
+        <v>118126</v>
       </c>
       <c r="D6">
-        <v>100601</v>
+        <v>97512</v>
       </c>
       <c r="E6">
-        <v>14146</v>
+        <v>11231</v>
       </c>
       <c r="F6">
-        <v>61565</v>
+        <v>53363</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>531134</v>
+        <v>377163</v>
       </c>
       <c r="C7">
-        <v>179792</v>
+        <v>108292</v>
       </c>
       <c r="D7">
-        <v>124167</v>
+        <v>79791</v>
       </c>
       <c r="E7">
-        <v>13717</v>
+        <v>10701</v>
       </c>
       <c r="F7">
-        <v>64481</v>
+        <v>50330</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>430701</v>
+        <v>353539</v>
       </c>
       <c r="C8">
-        <v>143994</v>
+        <v>132426</v>
       </c>
       <c r="D8">
-        <v>101425</v>
+        <v>65987</v>
       </c>
       <c r="E8">
-        <v>12941</v>
+        <v>8351</v>
       </c>
       <c r="F8">
-        <v>55512</v>
+        <v>49460</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>397563</v>
+        <v>416851</v>
       </c>
       <c r="C9">
-        <v>127477</v>
+        <v>111747</v>
       </c>
       <c r="D9">
-        <v>85529</v>
+        <v>52775</v>
       </c>
       <c r="E9">
-        <v>10660</v>
+        <v>10511</v>
       </c>
       <c r="F9">
-        <v>51340</v>
+        <v>52842</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>372242</v>
+        <v>163248</v>
       </c>
       <c r="C10">
-        <v>121175</v>
+        <v>41076</v>
       </c>
       <c r="D10">
-        <v>92649</v>
+        <v>31110</v>
       </c>
       <c r="E10">
-        <v>12134</v>
+        <v>4436</v>
       </c>
       <c r="F10">
-        <v>54438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>364259</v>
-      </c>
-      <c r="C11">
-        <v>98411</v>
-      </c>
-      <c r="D11">
-        <v>62608</v>
-      </c>
-      <c r="E11">
-        <v>8795</v>
-      </c>
-      <c r="F11">
-        <v>47050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>398056</v>
-      </c>
-      <c r="C12">
-        <v>142970</v>
-      </c>
-      <c r="D12">
-        <v>70632</v>
-      </c>
-      <c r="E12">
-        <v>9007</v>
-      </c>
-      <c r="F12">
-        <v>52963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>387630</v>
-      </c>
-      <c r="C13">
-        <v>97798</v>
-      </c>
-      <c r="D13">
-        <v>58154</v>
-      </c>
-      <c r="E13">
-        <v>11515</v>
-      </c>
-      <c r="F13">
-        <v>51345</v>
+        <v>21007</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1696,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1712,207 +1453,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>9.998636341499051</v>
+        <v>7.578511299863491</v>
       </c>
       <c r="C2">
-        <v>2.248940729557298</v>
+        <v>2.184627635370848</v>
       </c>
       <c r="D2">
-        <v>1.388106949788146</v>
+        <v>1.161174730775064</v>
       </c>
       <c r="E2">
-        <v>0.2486485170213802</v>
+        <v>0.2044592749886243</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>7.112432206925323</v>
+        <v>8.682141576813832</v>
       </c>
       <c r="C3">
-        <v>2.135493440875168</v>
+        <v>2.996070374762154</v>
       </c>
       <c r="D3">
-        <v>1.310040328188013</v>
+        <v>1.936105672448501</v>
       </c>
       <c r="E3">
-        <v>0.332244008714597</v>
+        <v>0.2408515566831205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>7.438756051048848</v>
+        <v>7.69483729605418</v>
       </c>
       <c r="C4">
-        <v>2.319299789741333</v>
+        <v>2.475707585607446</v>
       </c>
       <c r="D4">
-        <v>1.132780793115251</v>
+        <v>1.773409630045452</v>
       </c>
       <c r="E4">
-        <v>0.1525597770280182</v>
+        <v>0.1983593792441555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>8.475715695952616</v>
+        <v>7.966122012393036</v>
       </c>
       <c r="C5">
-        <v>2.271154985192497</v>
+        <v>2.716841251106521</v>
       </c>
       <c r="D5">
-        <v>1.365468904244817</v>
+        <v>1.692036736500443</v>
       </c>
       <c r="E5">
-        <v>0.1898519249753208</v>
+        <v>0.2264679846562408</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>8.193648988873548</v>
+        <v>6.985814140884133</v>
       </c>
       <c r="C6">
-        <v>2.684349874116787</v>
+        <v>2.213631167662987</v>
       </c>
       <c r="D6">
-        <v>1.634061560951839</v>
+        <v>1.827333545715196</v>
       </c>
       <c r="E6">
-        <v>0.229773410216844</v>
+        <v>0.2104641793002642</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>8.237062080302724</v>
+        <v>7.493800913967813</v>
       </c>
       <c r="C7">
-        <v>2.788294226206169</v>
+        <v>2.151639181402742</v>
       </c>
       <c r="D7">
-        <v>1.925637009351592</v>
+        <v>1.585356646135506</v>
       </c>
       <c r="E7">
-        <v>0.2127293311207953</v>
+        <v>0.2126167295847407</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>7.758700821444013</v>
+        <v>7.147978164173069</v>
       </c>
       <c r="C8">
-        <v>2.593925637699957</v>
+        <v>2.677436312171452</v>
       </c>
       <c r="D8">
-        <v>1.82708243262718</v>
+        <v>1.334148807116862</v>
       </c>
       <c r="E8">
-        <v>0.233120766681078</v>
+        <v>0.1688435099069956</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>7.743728087261394</v>
+        <v>7.888630256235571</v>
       </c>
       <c r="C9">
-        <v>2.482995714842228</v>
+        <v>2.114738276371068</v>
       </c>
       <c r="D9">
-        <v>1.665932995714842</v>
+        <v>0.9987320691873888</v>
       </c>
       <c r="E9">
-        <v>0.2076353720296066</v>
+        <v>0.1989137428560615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>6.837907344134612</v>
+        <v>7.77112391107726</v>
       </c>
       <c r="C10">
-        <v>2.225926742349094</v>
+        <v>1.955348217260913</v>
       </c>
       <c r="D10">
-        <v>1.701917778022705</v>
+        <v>1.480934926453087</v>
       </c>
       <c r="E10">
-        <v>0.222895771336199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>7.741955366631244</v>
-      </c>
-      <c r="C11">
-        <v>2.091625929861849</v>
-      </c>
-      <c r="D11">
-        <v>1.33066950053135</v>
-      </c>
-      <c r="E11">
-        <v>0.1869287991498406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>7.515737401582236</v>
-      </c>
-      <c r="C12">
-        <v>2.699431678719106</v>
-      </c>
-      <c r="D12">
-        <v>1.333610256216604</v>
-      </c>
-      <c r="E12">
-        <v>0.1700621188376791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>7.54951796669588</v>
-      </c>
-      <c r="C13">
-        <v>1.904722952575713</v>
-      </c>
-      <c r="D13">
-        <v>1.132612717888791</v>
-      </c>
-      <c r="E13">
-        <v>0.2242672119972733</v>
+        <v>0.211167706002761</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1946,243 +1636,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>975272</v>
+        <v>1432118</v>
       </c>
       <c r="C2">
-        <v>267331</v>
+        <v>396670</v>
       </c>
       <c r="D2">
-        <v>158926</v>
+        <v>265693</v>
       </c>
       <c r="E2">
-        <v>25076</v>
+        <v>43664</v>
       </c>
       <c r="F2">
-        <v>76970</v>
+        <v>89124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>954464</v>
+        <v>1040396</v>
       </c>
       <c r="C3">
-        <v>202666</v>
+        <v>298040</v>
       </c>
       <c r="D3">
-        <v>120967</v>
+        <v>212344</v>
       </c>
       <c r="E3">
-        <v>19648</v>
+        <v>25144</v>
       </c>
       <c r="F3">
-        <v>72488</v>
+        <v>82775</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1004184</v>
+        <v>542654</v>
       </c>
       <c r="C4">
-        <v>261939</v>
+        <v>137141</v>
       </c>
       <c r="D4">
-        <v>153819</v>
+        <v>90577</v>
       </c>
       <c r="E4">
-        <v>21467</v>
+        <v>12145</v>
       </c>
       <c r="F4">
-        <v>65179</v>
+        <v>53339</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1840818</v>
+        <v>668066</v>
       </c>
       <c r="C5">
-        <v>562396</v>
+        <v>146398</v>
       </c>
       <c r="D5">
-        <v>358030</v>
+        <v>92196</v>
       </c>
       <c r="E5">
-        <v>52362</v>
+        <v>16346</v>
       </c>
       <c r="F5">
-        <v>106375</v>
+        <v>61257</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1347928</v>
+        <v>891588</v>
       </c>
       <c r="C6">
-        <v>371438</v>
+        <v>216535</v>
       </c>
       <c r="D6">
-        <v>253720</v>
+        <v>130469</v>
       </c>
       <c r="E6">
-        <v>40749</v>
+        <v>15098</v>
       </c>
       <c r="F6">
-        <v>88383</v>
+        <v>73994</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>648347</v>
+        <v>1491182</v>
       </c>
       <c r="C7">
-        <v>156084</v>
+        <v>401128</v>
       </c>
       <c r="D7">
-        <v>119573</v>
+        <v>269273</v>
       </c>
       <c r="E7">
-        <v>10146</v>
+        <v>44239</v>
       </c>
       <c r="F7">
-        <v>61087</v>
+        <v>101025</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>602564</v>
+        <v>1170464</v>
       </c>
       <c r="C8">
-        <v>159852</v>
+        <v>321650</v>
       </c>
       <c r="D8">
-        <v>101202</v>
+        <v>207189</v>
       </c>
       <c r="E8">
-        <v>14713</v>
+        <v>30968</v>
       </c>
       <c r="F8">
-        <v>58198</v>
+        <v>77922</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>648012</v>
+        <v>1572450</v>
       </c>
       <c r="C9">
-        <v>144572</v>
+        <v>416948</v>
       </c>
       <c r="D9">
-        <v>86796</v>
+        <v>281750</v>
       </c>
       <c r="E9">
-        <v>13055</v>
+        <v>39412</v>
       </c>
       <c r="F9">
-        <v>57359</v>
+        <v>108905</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1218314</v>
+        <v>576571</v>
       </c>
       <c r="C10">
-        <v>324444</v>
+        <v>138324</v>
       </c>
       <c r="D10">
-        <v>217337</v>
+        <v>101884</v>
       </c>
       <c r="E10">
-        <v>32407</v>
+        <v>12190</v>
       </c>
       <c r="F10">
-        <v>94369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>1487946</v>
-      </c>
-      <c r="C11">
-        <v>388750</v>
-      </c>
-      <c r="D11">
-        <v>242257</v>
-      </c>
-      <c r="E11">
-        <v>36650</v>
-      </c>
-      <c r="F11">
-        <v>93522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>1314501</v>
-      </c>
-      <c r="C12">
-        <v>336575</v>
-      </c>
-      <c r="D12">
-        <v>234548</v>
-      </c>
-      <c r="E12">
-        <v>34241</v>
-      </c>
-      <c r="F12">
-        <v>89521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>1427959</v>
-      </c>
-      <c r="C13">
-        <v>384684</v>
-      </c>
-      <c r="D13">
-        <v>261431</v>
-      </c>
-      <c r="E13">
-        <v>35341</v>
-      </c>
-      <c r="F13">
-        <v>101819</v>
+        <v>40282</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2200,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2216,207 +1846,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>12.67080680784721</v>
+        <v>16.06882545666712</v>
       </c>
       <c r="C2">
-        <v>3.473184357541899</v>
+        <v>4.45076522597729</v>
       </c>
       <c r="D2">
-        <v>2.064778485124074</v>
+        <v>2.981161078946188</v>
       </c>
       <c r="E2">
-        <v>0.3257892685461868</v>
+        <v>0.4899241506216058</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>13.16720008829048</v>
+        <v>12.56896405919662</v>
       </c>
       <c r="C3">
-        <v>2.795855865798477</v>
+        <v>3.600604047115675</v>
       </c>
       <c r="D3">
-        <v>1.66878655777508</v>
+        <v>2.56531561461794</v>
       </c>
       <c r="E3">
-        <v>0.2710517602913586</v>
+        <v>0.3037632135306554</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>15.40655732674634</v>
+        <v>10.1736815463357</v>
       </c>
       <c r="C4">
-        <v>4.018763712238605</v>
+        <v>2.571120568439603</v>
       </c>
       <c r="D4">
-        <v>2.35994722226484</v>
+        <v>1.698138322803202</v>
       </c>
       <c r="E4">
-        <v>0.3293545467098298</v>
+        <v>0.2276945574532706</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>17.30498707403055</v>
+        <v>10.90595360530225</v>
       </c>
       <c r="C5">
-        <v>5.286918918918919</v>
+        <v>2.389898297337447</v>
       </c>
       <c r="D5">
-        <v>3.365734430082256</v>
+        <v>1.505068808462706</v>
       </c>
       <c r="E5">
-        <v>0.4922397179788484</v>
+        <v>0.2668429730479782</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>15.25098718079269</v>
+        <v>12.04946347001108</v>
       </c>
       <c r="C6">
-        <v>4.202595521763235</v>
+        <v>2.926385923182961</v>
       </c>
       <c r="D6">
-        <v>2.870687801952864</v>
+        <v>1.763237559802146</v>
       </c>
       <c r="E6">
-        <v>0.4610502019619158</v>
+        <v>0.2040435711003595</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>10.61350205444694</v>
+        <v>14.76052462261816</v>
       </c>
       <c r="C7">
-        <v>2.555109925188666</v>
+        <v>3.970581539222965</v>
       </c>
       <c r="D7">
-        <v>1.957421382618233</v>
+        <v>2.665409552091067</v>
       </c>
       <c r="E7">
-        <v>0.1660909849886228</v>
+        <v>0.4379015095273447</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>10.35368913021066</v>
+        <v>15.02096968763635</v>
       </c>
       <c r="C8">
-        <v>2.746692326196777</v>
+        <v>4.127845794512461</v>
       </c>
       <c r="D8">
-        <v>1.738925736279597</v>
+        <v>2.658928158928159</v>
       </c>
       <c r="E8">
-        <v>0.252809374892608</v>
+        <v>0.3974230640897308</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>11.29747729214247</v>
+        <v>14.43873100408613</v>
       </c>
       <c r="C9">
-        <v>2.520476298401297</v>
+        <v>3.828547816904642</v>
       </c>
       <c r="D9">
-        <v>1.513206297180913</v>
+        <v>2.587117212249208</v>
       </c>
       <c r="E9">
-        <v>0.2276015969595007</v>
+        <v>0.3618933933244571</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>12.91010819230891</v>
+        <v>14.31336577131225</v>
       </c>
       <c r="C10">
-        <v>3.438035795653234</v>
+        <v>3.433891067970806</v>
       </c>
       <c r="D10">
-        <v>2.303055028664074</v>
+        <v>2.529268655975374</v>
       </c>
       <c r="E10">
-        <v>0.3434072629783085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>15.91011740553025</v>
-      </c>
-      <c r="C11">
-        <v>4.156775945766771</v>
-      </c>
-      <c r="D11">
-        <v>2.590374457346934</v>
-      </c>
-      <c r="E11">
-        <v>0.391886401060713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>14.68371666983166</v>
-      </c>
-      <c r="C12">
-        <v>3.759732353302577</v>
-      </c>
-      <c r="D12">
-        <v>2.620033288278728</v>
-      </c>
-      <c r="E12">
-        <v>0.3824912590341931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>14.02448462467712</v>
-      </c>
-      <c r="C13">
-        <v>3.778116068710162</v>
-      </c>
-      <c r="D13">
-        <v>2.567605260314873</v>
-      </c>
-      <c r="E13">
-        <v>0.3470963179760163</v>
+        <v>0.3026165532992404</v>
       </c>
     </row>
   </sheetData>
@@ -2424,243 +2003,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
-      </c>
-      <c r="B2">
-        <v>7.271282784296779</v>
-      </c>
-      <c r="C2">
-        <v>1.192002127447396</v>
-      </c>
-      <c r="D2">
-        <v>0.546953428846857</v>
-      </c>
-      <c r="E2">
-        <v>0.06714755842169996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
-      </c>
-      <c r="B3">
-        <v>4.857218667082878</v>
-      </c>
-      <c r="C3">
-        <v>1.363383798969877</v>
-      </c>
-      <c r="D3">
-        <v>0.7195567348212892</v>
-      </c>
-      <c r="E3">
-        <v>0.1956922116435149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
-      </c>
-      <c r="B4">
-        <v>4.884644073293336</v>
-      </c>
-      <c r="C4">
-        <v>1.466320739419491</v>
-      </c>
-      <c r="D4">
-        <v>0.6190368088211448</v>
-      </c>
-      <c r="E4">
-        <v>0.07481757742824713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
-      </c>
-      <c r="B5">
-        <v>5.032217954740129</v>
-      </c>
-      <c r="C5">
-        <v>0.9517006990688293</v>
-      </c>
-      <c r="D5">
-        <v>0.4542565831284021</v>
-      </c>
-      <c r="E5">
-        <v>0.05838468127434997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
-      </c>
-      <c r="B6">
-        <v>5.161894036894036</v>
-      </c>
-      <c r="C6">
-        <v>1.346605534105534</v>
-      </c>
-      <c r="D6">
-        <v>0.6097168597168597</v>
-      </c>
-      <c r="E6">
-        <v>0.1033086658086658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
-      </c>
-      <c r="B7">
-        <v>4.86023761512889</v>
-      </c>
-      <c r="C7">
-        <v>1.663196904463458</v>
-      </c>
-      <c r="D7">
-        <v>0.8972696059730776</v>
-      </c>
-      <c r="E7">
-        <v>0.06785110905226442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
-      </c>
-      <c r="B8">
-        <v>4.69722270539804</v>
-      </c>
-      <c r="C8">
-        <v>1.357221545776077</v>
-      </c>
-      <c r="D8">
-        <v>0.7714385110453992</v>
-      </c>
-      <c r="E8">
-        <v>0.0637212268800371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
-      </c>
-      <c r="B9">
-        <v>5.219518457237405</v>
-      </c>
-      <c r="C9">
-        <v>1.054230615621612</v>
-      </c>
-      <c r="D9">
-        <v>0.8188509157300166</v>
-      </c>
-      <c r="E9">
-        <v>0.07271638044160438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B10">
-        <v>5.013350318471337</v>
-      </c>
-      <c r="C10">
-        <v>1.339745222929936</v>
-      </c>
-      <c r="D10">
-        <v>0.904968152866242</v>
-      </c>
-      <c r="E10">
-        <v>0.08157961783439491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>6.170099667774086</v>
-      </c>
-      <c r="C11">
-        <v>1.095681063122924</v>
-      </c>
-      <c r="D11">
-        <v>0.7585150946121624</v>
-      </c>
-      <c r="E11">
-        <v>0.09917665751841687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>5.519241700773079</v>
-      </c>
-      <c r="C12">
-        <v>1.672265802637563</v>
-      </c>
-      <c r="D12">
-        <v>0.5840723055934516</v>
-      </c>
-      <c r="E12">
-        <v>0.0528080945884493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>6.090092595167255</v>
-      </c>
-      <c r="C13">
-        <v>1.141840224675361</v>
-      </c>
-      <c r="D13">
-        <v>0.5494257987375915</v>
-      </c>
-      <c r="E13">
-        <v>0.08775686121847455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2684,243 +2029,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>442528</v>
+        <v>1831839</v>
       </c>
       <c r="C2">
-        <v>97187</v>
+        <v>511896</v>
       </c>
       <c r="D2">
-        <v>39932</v>
+        <v>326938</v>
       </c>
       <c r="E2">
-        <v>5188</v>
+        <v>54448</v>
       </c>
       <c r="F2">
-        <v>54775</v>
+        <v>141868</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>478100</v>
+        <v>1670077</v>
       </c>
       <c r="C3">
-        <v>59519</v>
+        <v>515333</v>
       </c>
       <c r="D3">
-        <v>35798</v>
+        <v>352762</v>
       </c>
       <c r="E3">
-        <v>2658</v>
+        <v>42612</v>
       </c>
       <c r="F3">
-        <v>50990</v>
+        <v>155301</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>422769</v>
+        <v>967586</v>
       </c>
       <c r="C4">
-        <v>87338</v>
+        <v>273857</v>
       </c>
       <c r="D4">
-        <v>33106</v>
+        <v>188510</v>
       </c>
       <c r="E4">
-        <v>5482</v>
+        <v>23099</v>
       </c>
       <c r="F4">
-        <v>44582</v>
+        <v>108562</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>413316</v>
+        <v>1100021</v>
       </c>
       <c r="C5">
-        <v>61920</v>
+        <v>293716</v>
       </c>
       <c r="D5">
-        <v>36246</v>
+        <v>183945</v>
       </c>
       <c r="E5">
-        <v>2903</v>
+        <v>28626</v>
       </c>
       <c r="F5">
-        <v>52303</v>
+        <v>115481</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>301910</v>
+        <v>1264372</v>
       </c>
       <c r="C6">
-        <v>44460</v>
+        <v>334661</v>
       </c>
       <c r="D6">
-        <v>12669</v>
+        <v>227981</v>
       </c>
       <c r="E6">
-        <v>3359</v>
+        <v>26329</v>
       </c>
       <c r="F6">
-        <v>41671</v>
+        <v>127357</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>326576</v>
+        <v>1868345</v>
       </c>
       <c r="C7">
-        <v>51513</v>
+        <v>509420</v>
       </c>
       <c r="D7">
-        <v>40773</v>
+        <v>349064</v>
       </c>
       <c r="E7">
-        <v>2642</v>
+        <v>54940</v>
       </c>
       <c r="F7">
-        <v>43531</v>
+        <v>151355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>320635</v>
+        <v>1524003</v>
       </c>
       <c r="C8">
-        <v>47093</v>
+        <v>454076</v>
       </c>
       <c r="D8">
-        <v>26438</v>
+        <v>273176</v>
       </c>
       <c r="E8">
-        <v>2089</v>
+        <v>39319</v>
       </c>
       <c r="F8">
-        <v>45336</v>
+        <v>127382</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>436568</v>
+        <v>1989301</v>
       </c>
       <c r="C9">
-        <v>74265</v>
+        <v>528695</v>
       </c>
       <c r="D9">
-        <v>38062</v>
+        <v>334525</v>
       </c>
       <c r="E9">
-        <v>6279</v>
+        <v>49923</v>
       </c>
       <c r="F9">
-        <v>49269</v>
+        <v>161747</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>625904</v>
+        <v>739819</v>
       </c>
       <c r="C10">
-        <v>86556</v>
+        <v>179400</v>
       </c>
       <c r="D10">
-        <v>45301</v>
+        <v>132994</v>
       </c>
       <c r="E10">
-        <v>3934</v>
+        <v>16626</v>
       </c>
       <c r="F10">
-        <v>68574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>691660</v>
-      </c>
-      <c r="C11">
-        <v>105941</v>
-      </c>
-      <c r="D11">
-        <v>59042</v>
-      </c>
-      <c r="E11">
-        <v>3528</v>
-      </c>
-      <c r="F11">
-        <v>61830</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>519940</v>
-      </c>
-      <c r="C12">
-        <v>72369</v>
-      </c>
-      <c r="D12">
-        <v>47066</v>
-      </c>
-      <c r="E12">
-        <v>2978</v>
-      </c>
-      <c r="F12">
-        <v>53558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>677050</v>
-      </c>
-      <c r="C13">
-        <v>112220</v>
-      </c>
-      <c r="D13">
-        <v>47362</v>
-      </c>
-      <c r="E13">
-        <v>3689</v>
-      </c>
-      <c r="F13">
-        <v>66244</v>
+        <v>61289</v>
       </c>
     </row>
   </sheetData>
@@ -2928,9 +2213,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2938,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2954,207 +2239,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>8.079014148790506</v>
+        <v>12.91227761017284</v>
       </c>
       <c r="C2">
-        <v>1.774294842537654</v>
+        <v>3.60825556150788</v>
       </c>
       <c r="D2">
-        <v>0.7290187129164765</v>
+        <v>2.304522513886148</v>
       </c>
       <c r="E2">
-        <v>0.0947147421268827</v>
+        <v>0.3837933854005132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>9.376348303588939</v>
+        <v>10.7538071229419</v>
       </c>
       <c r="C3">
-        <v>1.167268091782703</v>
+        <v>3.318285136605688</v>
       </c>
       <c r="D3">
-        <v>0.7020592272994705</v>
+        <v>2.271472817303172</v>
       </c>
       <c r="E3">
-        <v>0.05212786820945283</v>
+        <v>0.2743832943767265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>9.482952761204073</v>
+        <v>8.912750317790756</v>
       </c>
       <c r="C4">
-        <v>1.95904176573505</v>
+        <v>2.522586171957038</v>
       </c>
       <c r="D4">
-        <v>0.7425866941815082</v>
+        <v>1.736427110775409</v>
       </c>
       <c r="E4">
-        <v>0.1229644251043022</v>
+        <v>0.2127724249737477</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>7.902338297994379</v>
+        <v>9.525558316952573</v>
       </c>
       <c r="C5">
-        <v>1.183870906066574</v>
+        <v>2.543414068115101</v>
       </c>
       <c r="D5">
-        <v>0.6930004015066057</v>
+        <v>1.592859431421619</v>
       </c>
       <c r="E5">
-        <v>0.05550350840295968</v>
+        <v>0.2478849334522562</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>7.245086511002856</v>
+        <v>9.927777821399687</v>
       </c>
       <c r="C6">
-        <v>1.066929039379904</v>
+        <v>2.627739346875319</v>
       </c>
       <c r="D6">
-        <v>0.3040243814643277</v>
+        <v>1.790093987766672</v>
       </c>
       <c r="E6">
-        <v>0.08060761680785199</v>
+        <v>0.2067338269588637</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>7.502147894603845</v>
+        <v>12.34412473985002</v>
       </c>
       <c r="C7">
-        <v>1.183363579977487</v>
+        <v>3.365729576162003</v>
       </c>
       <c r="D7">
-        <v>0.9366428522202568</v>
+        <v>2.306260116943609</v>
       </c>
       <c r="E7">
-        <v>0.06069238014288668</v>
+        <v>0.3629876779756202</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>7.072414857949532</v>
+        <v>11.96403730511375</v>
       </c>
       <c r="C8">
-        <v>1.038755073230986</v>
+        <v>3.564679468056711</v>
       </c>
       <c r="D8">
-        <v>0.5831568731251103</v>
+        <v>2.144541614984849</v>
       </c>
       <c r="E8">
-        <v>0.04607817187224281</v>
+        <v>0.3086699847702187</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>8.86090645233311</v>
+        <v>12.29884325520721</v>
       </c>
       <c r="C9">
-        <v>1.507337270900566</v>
+        <v>3.268654132688705</v>
       </c>
       <c r="D9">
-        <v>0.7725344537132883</v>
+        <v>2.068199101065244</v>
       </c>
       <c r="E9">
-        <v>0.1274432198745662</v>
+        <v>0.3086486920932073</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>9.127424388252107</v>
+        <v>12.07099153192253</v>
       </c>
       <c r="C10">
-        <v>1.262227666462508</v>
+        <v>2.927115795656643</v>
       </c>
       <c r="D10">
-        <v>0.6606148102779479</v>
+        <v>2.169948930476921</v>
       </c>
       <c r="E10">
-        <v>0.05736868200775804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>11.18647905547469</v>
-      </c>
-      <c r="C11">
-        <v>1.713423904253599</v>
-      </c>
-      <c r="D11">
-        <v>0.9549086204108038</v>
-      </c>
-      <c r="E11">
-        <v>0.05705967976710335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>9.707980133686844</v>
-      </c>
-      <c r="C12">
-        <v>1.351226707494679</v>
-      </c>
-      <c r="D12">
-        <v>0.878785615594309</v>
-      </c>
-      <c r="E12">
-        <v>0.05560327121998581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>10.22054827607029</v>
-      </c>
-      <c r="C13">
-        <v>1.694040214962865</v>
-      </c>
-      <c r="D13">
-        <v>0.7149628645613187</v>
-      </c>
-      <c r="E13">
-        <v>0.05568806231507759</v>
+        <v>0.2712721695573431</v>
       </c>
     </row>
   </sheetData>
@@ -3162,9 +2396,192 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4.973014795710601</v>
+      </c>
+      <c r="C2">
+        <v>1.273788516356726</v>
+      </c>
+      <c r="D2">
+        <v>0.5982353739649789</v>
+      </c>
+      <c r="E2">
+        <v>0.1217591964164517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5.510730964999738</v>
+      </c>
+      <c r="C3">
+        <v>1.552972660964475</v>
+      </c>
+      <c r="D3">
+        <v>0.5701317101327597</v>
+      </c>
+      <c r="E3">
+        <v>0.0654090360497455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4.195130354886873</v>
+      </c>
+      <c r="C4">
+        <v>1.446393706213392</v>
+      </c>
+      <c r="D4">
+        <v>0.8897151717009303</v>
+      </c>
+      <c r="E4">
+        <v>0.07427931549328126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5.289333030079035</v>
+      </c>
+      <c r="C5">
+        <v>1.258742252800364</v>
+      </c>
+      <c r="D5">
+        <v>0.6174162733837494</v>
+      </c>
+      <c r="E5">
+        <v>0.06052766247796668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4.546435937960409</v>
+      </c>
+      <c r="C6">
+        <v>0.9294955934745922</v>
+      </c>
+      <c r="D6">
+        <v>0.8387399212450778</v>
+      </c>
+      <c r="E6">
+        <v>0.04312769548096756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>6.14762629092947</v>
+      </c>
+      <c r="C7">
+        <v>1.448856510020548</v>
+      </c>
+      <c r="D7">
+        <v>1.232834307367972</v>
+      </c>
+      <c r="E7">
+        <v>0.1431430630053639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5.390609212481427</v>
+      </c>
+      <c r="C8">
+        <v>1.631233283803863</v>
+      </c>
+      <c r="D8">
+        <v>0.482407132243685</v>
+      </c>
+      <c r="E8">
+        <v>0.04829123328380387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6.334900572503249</v>
+      </c>
+      <c r="C9">
+        <v>1.294493459081229</v>
+      </c>
+      <c r="D9">
+        <v>0.4168210858201731</v>
+      </c>
+      <c r="E9">
+        <v>0.05813535414995713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>5.803113979639364</v>
+      </c>
+      <c r="C10">
+        <v>1.022889081109854</v>
+      </c>
+      <c r="D10">
+        <v>0.8650608822942312</v>
+      </c>
+      <c r="E10">
+        <v>0.1103200479073791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3188,243 +2605,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>191862</v>
+        <v>323258</v>
       </c>
       <c r="C2">
-        <v>56496</v>
+        <v>45616</v>
       </c>
       <c r="D2">
-        <v>40550</v>
+        <v>15637</v>
       </c>
       <c r="E2">
-        <v>8191</v>
+        <v>3589</v>
       </c>
       <c r="F2">
-        <v>10983</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>151272</v>
+        <v>356304</v>
       </c>
       <c r="C3">
-        <v>48462</v>
+        <v>60368</v>
       </c>
       <c r="D3">
-        <v>33472</v>
+        <v>42124</v>
       </c>
       <c r="E3">
-        <v>8066</v>
+        <v>4105</v>
       </c>
       <c r="F3">
-        <v>11111</v>
+        <v>46845</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>153642</v>
+        <v>284796</v>
       </c>
       <c r="C4">
-        <v>49650</v>
+        <v>43042</v>
       </c>
       <c r="D4">
-        <v>27245</v>
+        <v>26019</v>
       </c>
       <c r="E4">
-        <v>3933</v>
+        <v>1446</v>
       </c>
       <c r="F4">
-        <v>10067</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>247174</v>
+        <v>419231</v>
       </c>
       <c r="C5">
-        <v>80591</v>
+        <v>59821</v>
       </c>
       <c r="D5">
-        <v>52721</v>
+        <v>35507</v>
       </c>
       <c r="E5">
-        <v>7503</v>
+        <v>6291</v>
       </c>
       <c r="F5">
-        <v>14459</v>
+        <v>50420</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>311924</v>
+        <v>545780</v>
       </c>
       <c r="C6">
-        <v>115039</v>
+        <v>80775</v>
       </c>
       <c r="D6">
-        <v>77861</v>
+        <v>32386</v>
       </c>
       <c r="E6">
-        <v>10293</v>
+        <v>4134</v>
       </c>
       <c r="F6">
-        <v>24269</v>
+        <v>58818</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>352773</v>
+        <v>692008</v>
       </c>
       <c r="C7">
-        <v>118756</v>
+        <v>107502</v>
       </c>
       <c r="D7">
-        <v>91239</v>
+        <v>66024</v>
       </c>
       <c r="E7">
-        <v>11227</v>
+        <v>4610</v>
       </c>
       <c r="F7">
-        <v>27783</v>
+        <v>69201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>268675</v>
+        <v>476140</v>
       </c>
       <c r="C8">
-        <v>97178</v>
+        <v>78302</v>
       </c>
       <c r="D8">
-        <v>74815</v>
+        <v>44844</v>
       </c>
       <c r="E8">
-        <v>10743</v>
+        <v>2341</v>
       </c>
       <c r="F8">
-        <v>21018</v>
+        <v>47789</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>214598</v>
+        <v>680567</v>
       </c>
       <c r="C9">
-        <v>90522</v>
+        <v>104088</v>
       </c>
       <c r="D9">
-        <v>56825</v>
+        <v>48548</v>
       </c>
       <c r="E9">
-        <v>8111</v>
+        <v>4486</v>
       </c>
       <c r="F9">
-        <v>16286</v>
+        <v>64753</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>175468</v>
+        <v>291895</v>
       </c>
       <c r="C10">
-        <v>68590</v>
+        <v>38277</v>
       </c>
       <c r="D10">
-        <v>57129</v>
+        <v>20116</v>
       </c>
       <c r="E10">
-        <v>8932</v>
+        <v>194</v>
       </c>
       <c r="F10">
-        <v>15188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>150681</v>
-      </c>
-      <c r="C11">
-        <v>60484</v>
-      </c>
-      <c r="D11">
-        <v>36352</v>
-      </c>
-      <c r="E11">
-        <v>5362</v>
-      </c>
-      <c r="F11">
-        <v>12435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>203867</v>
-      </c>
-      <c r="C12">
-        <v>84133</v>
-      </c>
-      <c r="D12">
-        <v>50082</v>
-      </c>
-      <c r="E12">
-        <v>7149</v>
-      </c>
-      <c r="F12">
-        <v>17779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>168612</v>
-      </c>
-      <c r="C13">
-        <v>56734</v>
-      </c>
-      <c r="D13">
-        <v>38395</v>
-      </c>
-      <c r="E13">
-        <v>8359</v>
-      </c>
-      <c r="F13">
-        <v>15382</v>
+        <v>29472</v>
       </c>
     </row>
   </sheetData>
@@ -3432,9 +2789,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3442,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3458,207 +2815,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>17.46899754165528</v>
+        <v>7.575767518162643</v>
       </c>
       <c r="C2">
-        <v>5.143949740508058</v>
+        <v>1.069041481134286</v>
       </c>
       <c r="D2">
-        <v>3.692069562050442</v>
+        <v>0.3664635575345676</v>
       </c>
       <c r="E2">
-        <v>0.7457889465537649</v>
+        <v>0.08411061635809702</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>13.61461614616146</v>
+        <v>7.606019852705732</v>
       </c>
       <c r="C3">
-        <v>4.361623616236162</v>
+        <v>1.288675418934785</v>
       </c>
       <c r="D3">
-        <v>3.012510125101251</v>
+        <v>0.8992208346675206</v>
       </c>
       <c r="E3">
-        <v>0.7259472594725948</v>
+        <v>0.08762941615967552</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>15.26194496870965</v>
+        <v>6.813138441664075</v>
       </c>
       <c r="C4">
-        <v>4.931955895500149</v>
+        <v>1.029688284969259</v>
       </c>
       <c r="D4">
-        <v>2.70636733882984</v>
+        <v>0.6224492237027822</v>
       </c>
       <c r="E4">
-        <v>0.390682427734181</v>
+        <v>0.03459247386426162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>17.09481983539664</v>
+        <v>8.314775882586275</v>
       </c>
       <c r="C5">
-        <v>5.573760287710077</v>
+        <v>1.186453788179294</v>
       </c>
       <c r="D5">
-        <v>3.646241095511446</v>
+        <v>0.7042245140817136</v>
       </c>
       <c r="E5">
-        <v>0.5189155543260253</v>
+        <v>0.1247719159063864</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>12.85277514524702</v>
+        <v>9.279132238430412</v>
       </c>
       <c r="C6">
-        <v>4.740162347027072</v>
+        <v>1.373304090584515</v>
       </c>
       <c r="D6">
-        <v>3.208249206807038</v>
+        <v>0.5506137576932232</v>
       </c>
       <c r="E6">
-        <v>0.4241213070171824</v>
+        <v>0.07028460675303479</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>12.69744088111435</v>
+        <v>9.999971098683545</v>
       </c>
       <c r="C7">
-        <v>4.274412410466832</v>
+        <v>1.553474660770798</v>
       </c>
       <c r="D7">
-        <v>3.283986610517223</v>
+        <v>0.9540902588112888</v>
       </c>
       <c r="E7">
-        <v>0.4040960299463701</v>
+        <v>0.06661753442869323</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>12.78309068417547</v>
+        <v>9.963380694302035</v>
       </c>
       <c r="C8">
-        <v>4.623560757445999</v>
+        <v>1.6384942141497</v>
       </c>
       <c r="D8">
-        <v>3.559567989342468</v>
+        <v>0.9383749398397121</v>
       </c>
       <c r="E8">
-        <v>0.5111333143020268</v>
+        <v>0.04898616836510494</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>13.17683900282451</v>
+        <v>10.51020029960002</v>
       </c>
       <c r="C9">
-        <v>5.558270907527938</v>
+        <v>1.607462202523435</v>
       </c>
       <c r="D9">
-        <v>3.489193172049613</v>
+        <v>0.7497413247262675</v>
       </c>
       <c r="E9">
-        <v>0.4980351221908387</v>
+        <v>0.06927864346053465</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>11.55306821174612</v>
+        <v>9.904146308360477</v>
       </c>
       <c r="C10">
-        <v>4.516065314722149</v>
+        <v>1.298758143322476</v>
       </c>
       <c r="D10">
-        <v>3.761456412957598</v>
+        <v>0.6825461454940283</v>
       </c>
       <c r="E10">
-        <v>0.5880958651567026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>12.11749095295537</v>
-      </c>
-      <c r="C11">
-        <v>4.864012866907921</v>
-      </c>
-      <c r="D11">
-        <v>2.923361479694411</v>
-      </c>
-      <c r="E11">
-        <v>0.4312022517088862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>11.46673041228416</v>
-      </c>
-      <c r="C12">
-        <v>4.732155914280893</v>
-      </c>
-      <c r="D12">
-        <v>2.816918836829968</v>
-      </c>
-      <c r="E12">
-        <v>0.4021036053771303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>10.9616434793915</v>
-      </c>
-      <c r="C13">
-        <v>3.68833701729294</v>
-      </c>
-      <c r="D13">
-        <v>2.496099336887271</v>
-      </c>
-      <c r="E13">
-        <v>0.5434273826550513</v>
+        <v>0.006582519001085777</v>
       </c>
     </row>
   </sheetData>
@@ -3666,9 +2972,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3692,243 +2998,183 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>532744</v>
+        <v>216540</v>
       </c>
       <c r="C2">
-        <v>170144</v>
+        <v>68306</v>
       </c>
       <c r="D2">
-        <v>118994</v>
+        <v>39209</v>
       </c>
       <c r="E2">
-        <v>19888</v>
+        <v>6299</v>
       </c>
       <c r="F2">
-        <v>22195</v>
+        <v>15909</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>476364</v>
+        <v>419645</v>
       </c>
       <c r="C3">
-        <v>143147</v>
+        <v>158103</v>
       </c>
       <c r="D3">
-        <v>85169</v>
+        <v>118688</v>
       </c>
       <c r="E3">
-        <v>16990</v>
+        <v>14975</v>
       </c>
       <c r="F3">
-        <v>21498</v>
+        <v>34412</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>581415</v>
+        <v>278824</v>
       </c>
       <c r="C4">
-        <v>174601</v>
+        <v>86341</v>
       </c>
       <c r="D4">
-        <v>120713</v>
+        <v>66946</v>
       </c>
       <c r="E4">
-        <v>15985</v>
+        <v>8367</v>
       </c>
       <c r="F4">
-        <v>20597</v>
+        <v>20395</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1427502</v>
+        <v>245908</v>
       </c>
       <c r="C5">
-        <v>500476</v>
+        <v>103043</v>
       </c>
       <c r="D5">
-        <v>321784</v>
+        <v>70032</v>
       </c>
       <c r="E5">
-        <v>49459</v>
+        <v>10151</v>
       </c>
       <c r="F5">
-        <v>54072</v>
+        <v>19050</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1046018</v>
+        <v>203061</v>
       </c>
       <c r="C6">
-        <v>326978</v>
+        <v>83427</v>
       </c>
       <c r="D6">
-        <v>241051</v>
+        <v>66201</v>
       </c>
       <c r="E6">
-        <v>37390</v>
+        <v>9621</v>
       </c>
       <c r="F6">
-        <v>46712</v>
+        <v>16032</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>321771</v>
+        <v>146793</v>
       </c>
       <c r="C7">
-        <v>104571</v>
+        <v>53999</v>
       </c>
       <c r="D7">
-        <v>78800</v>
+        <v>33593</v>
       </c>
       <c r="E7">
-        <v>7504</v>
+        <v>5337</v>
       </c>
       <c r="F7">
-        <v>17556</v>
+        <v>12857</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>281929</v>
+        <v>172145</v>
       </c>
       <c r="C8">
-        <v>112759</v>
+        <v>77535</v>
       </c>
       <c r="D8">
-        <v>74764</v>
+        <v>49754</v>
       </c>
       <c r="E8">
-        <v>12624</v>
+        <v>6726</v>
       </c>
       <c r="F8">
-        <v>12862</v>
+        <v>15810</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>211444</v>
+        <v>187800</v>
       </c>
       <c r="C9">
-        <v>70307</v>
+        <v>64942</v>
       </c>
       <c r="D9">
-        <v>48734</v>
+        <v>37704</v>
       </c>
       <c r="E9">
-        <v>6776</v>
+        <v>8409</v>
       </c>
       <c r="F9">
-        <v>8090</v>
+        <v>16685</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>592410</v>
+        <v>76033</v>
       </c>
       <c r="C10">
-        <v>237888</v>
+        <v>25703</v>
       </c>
       <c r="D10">
-        <v>172036</v>
+        <v>18109</v>
       </c>
       <c r="E10">
-        <v>28473</v>
+        <v>2778</v>
       </c>
       <c r="F10">
-        <v>25795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>796286</v>
-      </c>
-      <c r="C11">
-        <v>282809</v>
-      </c>
-      <c r="D11">
-        <v>183215</v>
-      </c>
-      <c r="E11">
-        <v>33122</v>
-      </c>
-      <c r="F11">
-        <v>31692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>794561</v>
-      </c>
-      <c r="C12">
-        <v>264206</v>
-      </c>
-      <c r="D12">
-        <v>187482</v>
-      </c>
-      <c r="E12">
-        <v>31263</v>
-      </c>
-      <c r="F12">
-        <v>35963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>750909</v>
-      </c>
-      <c r="C13">
-        <v>272464</v>
-      </c>
-      <c r="D13">
-        <v>214069</v>
-      </c>
-      <c r="E13">
-        <v>31652</v>
-      </c>
-      <c r="F13">
-        <v>35575</v>
+        <v>5978</v>
       </c>
     </row>
   </sheetData>
@@ -3936,9 +3182,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3946,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3962,207 +3208,156 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>24.0028835323271</v>
+        <v>13.61116349236281</v>
       </c>
       <c r="C2">
-        <v>7.665870691597207</v>
+        <v>4.293544534540198</v>
       </c>
       <c r="D2">
-        <v>5.361297589547195</v>
+        <v>2.464579797598843</v>
       </c>
       <c r="E2">
-        <v>0.896057670646542</v>
+        <v>0.3959394053680307</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>22.15852637454647</v>
+        <v>12.19472858305242</v>
       </c>
       <c r="C3">
-        <v>6.658619406456414</v>
+        <v>4.594414739044519</v>
       </c>
       <c r="D3">
-        <v>3.961717369057587</v>
+        <v>3.449029408345926</v>
       </c>
       <c r="E3">
-        <v>0.7903060749837194</v>
+        <v>0.4351679646634895</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>28.22814002039132</v>
+        <v>13.67119392007845</v>
       </c>
       <c r="C4">
-        <v>8.477011215225518</v>
+        <v>4.233439568521696</v>
       </c>
       <c r="D4">
-        <v>5.860707870078167</v>
+        <v>3.282471193920078</v>
       </c>
       <c r="E4">
-        <v>0.7760838957129679</v>
+        <v>0.4102476097082619</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>26.40002219263205</v>
+        <v>12.9085564304462</v>
       </c>
       <c r="C5">
-        <v>9.255733096611925</v>
+        <v>5.409081364829396</v>
       </c>
       <c r="D5">
-        <v>5.951028258618138</v>
+        <v>3.676220472440945</v>
       </c>
       <c r="E5">
-        <v>0.9146878236425506</v>
+        <v>0.5328608923884515</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>22.39291830792944</v>
+        <v>12.66598053892216</v>
       </c>
       <c r="C6">
-        <v>6.999871553348176</v>
+        <v>5.203779940119761</v>
       </c>
       <c r="D6">
-        <v>5.160365644802192</v>
+        <v>4.129303892215569</v>
       </c>
       <c r="E6">
-        <v>0.8004367186162014</v>
+        <v>0.6001122754491018</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>18.32826384142174</v>
+        <v>11.41736019289103</v>
       </c>
       <c r="C7">
-        <v>5.956425153793575</v>
+        <v>4.199968888543206</v>
       </c>
       <c r="D7">
-        <v>4.488493962178173</v>
+        <v>2.612817920199114</v>
       </c>
       <c r="E7">
-        <v>0.4274322169059011</v>
+        <v>0.4151046122734697</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>21.91953039962681</v>
+        <v>10.88836179633144</v>
       </c>
       <c r="C8">
-        <v>8.766832529933136</v>
+        <v>4.904174573055029</v>
       </c>
       <c r="D8">
-        <v>5.812781837972322</v>
+        <v>3.146995572422517</v>
       </c>
       <c r="E8">
-        <v>0.9814958793344737</v>
+        <v>0.425426944971537</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>26.13646477132262</v>
+        <v>11.25561881929877</v>
       </c>
       <c r="C9">
-        <v>8.690605686032139</v>
+        <v>3.89223853760863</v>
       </c>
       <c r="D9">
-        <v>6.02398022249691</v>
+        <v>2.259754270302667</v>
       </c>
       <c r="E9">
-        <v>0.8375772558714463</v>
+        <v>0.5039856158225952</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>22.96607869742198</v>
+        <v>12.71880227500836</v>
       </c>
       <c r="C10">
-        <v>9.22225237449118</v>
+        <v>4.299598527935765</v>
       </c>
       <c r="D10">
-        <v>6.669354526070944</v>
+        <v>3.029274004683841</v>
       </c>
       <c r="E10">
-        <v>1.103818569490211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>25.12577306575792</v>
-      </c>
-      <c r="C11">
-        <v>8.923671589044554</v>
-      </c>
-      <c r="D11">
-        <v>5.781111952543228</v>
-      </c>
-      <c r="E11">
-        <v>1.045121797299003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>22.09384645329922</v>
-      </c>
-      <c r="C12">
-        <v>7.346606234185135</v>
-      </c>
-      <c r="D12">
-        <v>5.213191335539304</v>
-      </c>
-      <c r="E12">
-        <v>0.8693101242944137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>21.10777231201687</v>
-      </c>
-      <c r="C13">
-        <v>7.658861560084329</v>
-      </c>
-      <c r="D13">
-        <v>6.017399859451862</v>
-      </c>
-      <c r="E13">
-        <v>0.8897259311314125</v>
+        <v>0.4647039143526263</v>
       </c>
     </row>
   </sheetData>
@@ -4170,9 +3365,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4196,243 +3391,576 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43076</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>661270</v>
+        <v>1108860</v>
       </c>
       <c r="C2">
-        <v>133046</v>
+        <v>351054</v>
       </c>
       <c r="D2">
-        <v>56386</v>
+        <v>250056</v>
       </c>
       <c r="E2">
-        <v>7208</v>
+        <v>40075</v>
       </c>
       <c r="F2">
-        <v>84858</v>
+        <v>46454</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43083</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>633701</v>
+        <v>684092</v>
       </c>
       <c r="C3">
-        <v>103195</v>
+        <v>237672</v>
       </c>
       <c r="D3">
-        <v>58849</v>
+        <v>170220</v>
       </c>
       <c r="E3">
-        <v>8927</v>
+        <v>21039</v>
       </c>
       <c r="F3">
-        <v>83025</v>
+        <v>35930</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43090</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>573387</v>
+        <v>257858</v>
       </c>
       <c r="C4">
-        <v>132552</v>
+        <v>94099</v>
       </c>
       <c r="D4">
-        <v>52194</v>
+        <v>64558</v>
       </c>
       <c r="E4">
-        <v>7789</v>
+        <v>10699</v>
       </c>
       <c r="F4">
-        <v>75417</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43097</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>595437</v>
+        <v>248835</v>
       </c>
       <c r="C5">
-        <v>96363</v>
+        <v>86577</v>
       </c>
       <c r="D5">
-        <v>52686</v>
+        <v>56689</v>
       </c>
       <c r="E5">
-        <v>5016</v>
+        <v>10055</v>
       </c>
       <c r="F5">
-        <v>88494</v>
+        <v>10837</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43104</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>494428</v>
+        <v>345808</v>
       </c>
       <c r="C6">
-        <v>94683</v>
+        <v>135760</v>
       </c>
       <c r="D6">
-        <v>35409</v>
+        <v>98083</v>
       </c>
       <c r="E6">
-        <v>7212</v>
+        <v>10964</v>
       </c>
       <c r="F6">
-        <v>78967</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43111</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>504937</v>
+        <v>799174</v>
       </c>
       <c r="C7">
-        <v>112549</v>
+        <v>293626</v>
       </c>
       <c r="D7">
-        <v>73701</v>
+        <v>203249</v>
       </c>
       <c r="E7">
-        <v>5132</v>
+        <v>39629</v>
       </c>
       <c r="F7">
-        <v>80229</v>
+        <v>31824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43118</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>482661</v>
+        <v>694324</v>
       </c>
       <c r="C8">
-        <v>93909</v>
+        <v>243348</v>
       </c>
       <c r="D8">
-        <v>53048</v>
+        <v>162345</v>
       </c>
       <c r="E8">
-        <v>4287</v>
+        <v>28627</v>
       </c>
       <c r="F8">
-        <v>79830</v>
+        <v>30133</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43125</v>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>619533</v>
+        <v>891883</v>
       </c>
       <c r="C9">
-        <v>111220</v>
+        <v>312860</v>
       </c>
       <c r="D9">
-        <v>66766</v>
+        <v>233202</v>
       </c>
       <c r="E9">
-        <v>8828</v>
+        <v>34926</v>
       </c>
       <c r="F9">
-        <v>84323</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43132</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>822678</v>
+        <v>284676</v>
       </c>
       <c r="C10">
-        <v>139141</v>
+        <v>100047</v>
       </c>
       <c r="D10">
-        <v>80821</v>
+        <v>81768</v>
       </c>
       <c r="E10">
-        <v>7136</v>
+        <v>11996</v>
       </c>
       <c r="F10">
-        <v>107824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B11">
-        <v>905238</v>
-      </c>
-      <c r="C11">
-        <v>143868</v>
-      </c>
-      <c r="D11">
-        <v>85298</v>
-      </c>
-      <c r="E11">
-        <v>6961</v>
-      </c>
-      <c r="F11">
-        <v>96445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43146</v>
-      </c>
-      <c r="B12">
-        <v>714129</v>
-      </c>
-      <c r="C12">
-        <v>131206</v>
-      </c>
-      <c r="D12">
-        <v>67616</v>
-      </c>
-      <c r="E12">
-        <v>4836</v>
-      </c>
-      <c r="F12">
-        <v>88742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43153</v>
-      </c>
-      <c r="B13">
-        <v>896068</v>
-      </c>
-      <c r="C13">
-        <v>153284</v>
-      </c>
-      <c r="D13">
-        <v>67121</v>
-      </c>
-      <c r="E13">
-        <v>6845</v>
-      </c>
-      <c r="F13">
-        <v>102207</v>
+        <v>10810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>23.87006501054807</v>
+      </c>
+      <c r="C2">
+        <v>7.557024152925474</v>
+      </c>
+      <c r="D2">
+        <v>5.382873380117966</v>
+      </c>
+      <c r="E2">
+        <v>0.8626813622077755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>19.03957695519065</v>
+      </c>
+      <c r="C3">
+        <v>6.614862232118007</v>
+      </c>
+      <c r="D3">
+        <v>4.737545226829947</v>
+      </c>
+      <c r="E3">
+        <v>0.5855552463122738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>22.34858727682441</v>
+      </c>
+      <c r="C4">
+        <v>8.155572889582251</v>
+      </c>
+      <c r="D4">
+        <v>5.595250476685734</v>
+      </c>
+      <c r="E4">
+        <v>0.9272837580169874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>22.96161299252561</v>
+      </c>
+      <c r="C5">
+        <v>7.989019101227277</v>
+      </c>
+      <c r="D5">
+        <v>5.23106025652856</v>
+      </c>
+      <c r="E5">
+        <v>0.9278398080649626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>22.78650500790722</v>
+      </c>
+      <c r="C6">
+        <v>8.945703742751713</v>
+      </c>
+      <c r="D6">
+        <v>6.463033737480232</v>
+      </c>
+      <c r="E6">
+        <v>0.7224565102793885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>25.11230517848165</v>
+      </c>
+      <c r="C7">
+        <v>9.226558572146807</v>
+      </c>
+      <c r="D7">
+        <v>6.386657868275515</v>
+      </c>
+      <c r="E7">
+        <v>1.245255153343389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>23.04198055288222</v>
+      </c>
+      <c r="C8">
+        <v>8.075797298642684</v>
+      </c>
+      <c r="D8">
+        <v>5.387614907244549</v>
+      </c>
+      <c r="E8">
+        <v>0.9500215710350778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20.20028537778583</v>
+      </c>
+      <c r="C9">
+        <v>7.085975720239174</v>
+      </c>
+      <c r="D9">
+        <v>5.281799238992571</v>
+      </c>
+      <c r="E9">
+        <v>0.7910400434861388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>26.33450508788159</v>
+      </c>
+      <c r="C10">
+        <v>9.255041628122109</v>
+      </c>
+      <c r="D10">
+        <v>7.564107308048103</v>
+      </c>
+      <c r="E10">
+        <v>1.109713228492137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>506439</v>
+      </c>
+      <c r="C2">
+        <v>92536</v>
+      </c>
+      <c r="D2">
+        <v>37673</v>
+      </c>
+      <c r="E2">
+        <v>8074</v>
+      </c>
+      <c r="F2">
+        <v>79505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>566340</v>
+      </c>
+      <c r="C3">
+        <v>119558</v>
+      </c>
+      <c r="D3">
+        <v>63854</v>
+      </c>
+      <c r="E3">
+        <v>6598</v>
+      </c>
+      <c r="F3">
+        <v>84959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>430904</v>
+      </c>
+      <c r="C4">
+        <v>93417</v>
+      </c>
+      <c r="D4">
+        <v>57006</v>
+      </c>
+      <c r="E4">
+        <v>4033</v>
+      </c>
+      <c r="F4">
+        <v>76629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>605278</v>
+      </c>
+      <c r="C5">
+        <v>104096</v>
+      </c>
+      <c r="D5">
+        <v>57224</v>
+      </c>
+      <c r="E5">
+        <v>8420</v>
+      </c>
+      <c r="F5">
+        <v>85594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>715503</v>
+      </c>
+      <c r="C6">
+        <v>115474</v>
+      </c>
+      <c r="D6">
+        <v>63697</v>
+      </c>
+      <c r="E6">
+        <v>5744</v>
+      </c>
+      <c r="F6">
+        <v>96149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>922378</v>
+      </c>
+      <c r="C7">
+        <v>161795</v>
+      </c>
+      <c r="D7">
+        <v>112222</v>
+      </c>
+      <c r="E7">
+        <v>9974</v>
+      </c>
+      <c r="F7">
+        <v>106674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>657534</v>
+      </c>
+      <c r="C8">
+        <v>133193</v>
+      </c>
+      <c r="D8">
+        <v>61077</v>
+      </c>
+      <c r="E8">
+        <v>3966</v>
+      </c>
+      <c r="F8">
+        <v>81439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>909618</v>
+      </c>
+      <c r="C9">
+        <v>150893</v>
+      </c>
+      <c r="D9">
+        <v>63619</v>
+      </c>
+      <c r="E9">
+        <v>6588</v>
+      </c>
+      <c r="F9">
+        <v>100910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>379110</v>
+      </c>
+      <c r="C10">
+        <v>53650</v>
+      </c>
+      <c r="D10">
+        <v>33117</v>
+      </c>
+      <c r="E10">
+        <v>1852</v>
+      </c>
+      <c r="F10">
+        <v>44501</v>
       </c>
     </row>
   </sheetData>
